--- a/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -557,27 +561,37 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>389,17%</t>
+          <t>16,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>456,49%</t>
+          <t>252,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>218,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>297,62%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1031,03%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 10,68</t>
+          <t>-2,04; 21,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,93</t>
+          <t>-2,48; 17,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 6,07</t>
+          <t>-1,92; 19,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,3; 41,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-88,21; 682,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1108,06%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>163,02%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,48</t>
+          <t>-2,31; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 8,06</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,76</t>
+          <t>0,41; 3,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,24; —</t>
+          <t>-0,83; 4,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -748,6 +794,16 @@
       <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-75,93; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,26%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>105,04%</t>
+          <t>50,43%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-65,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-40,78%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,26</t>
+          <t>-3,94; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 3,09</t>
+          <t>-2,43; 5,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 5,9</t>
+          <t>-14,59; 0,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,25; 1,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 126,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 1073,99</t>
+          <t>-78,51; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-95,88; 50,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>114,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 568,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 351,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 298,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>64,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>122,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>200,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 2,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 4,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 2,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 11,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-73,06; 892,6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-46,4; 1131,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-75,43; 143,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; 1425,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_5_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>252,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>218,05%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>297,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1031,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.22845585880971</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.159055553716497</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.1267443112631</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>12.99276696598182</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.026566101902458</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.178343851759354</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.934282468381006</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>7.37508015910268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 21,19</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 17,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 19,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 41,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.043014946158232</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.581072972214369</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.785649502323741</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.423322966223723</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.26154707643659</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.75841945305298</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.33274471692547</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>36.26291081259117</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>34,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>163,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 2,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 3,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 4,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-75,93; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.04259635878586989</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4446108149006993</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.247738982305534</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.782108285978141</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.03568360250963831</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.613268977967511</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>50,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-65,32%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-40,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.489491377810298</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3884540396671282</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7912369357586552</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.7507350860177223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 5,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 0,27</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 1,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-78,51; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-95,88; 50,68</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.979192815411058</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.224115598343575</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.403653283593031</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.66478778924548</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +801,201 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.7994661941847971</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.243700038906955</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.507567510966773</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.6365801840602463</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5143862386083398</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6603546616768255</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2859297398865789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.325505209770295</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.701410964200924</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.52717031958193</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.729903997744003</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.8167573012236052</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9641917589406219</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.742929971184759</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.01490345047529729</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.015739332735777</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3785389075948367</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>64,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>122,48%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-8,25%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>200,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 2,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 4,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 2,46</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 11,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-73,06; 892,6</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-46,4; 1131,73</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-75,43; 143,63</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,86; 1425,99</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.6035456453918617</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.387977122714123</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4043815107037236</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.162217294307374</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.4994125570489416</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.217411119931389</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1290276776328869</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.992716759041562</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.412735646818413</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5009514394192287</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.165410817379942</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3422041010940991</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7591979642195874</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5089089926834073</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7752910345867593</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.216129241918304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.692545969683172</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.078854702487065</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.134463000622503</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.310892810230973</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>7.389701391807678</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>10.18569240765736</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.226055291037081</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>12.92891340594018</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
